--- a/JonahKubath_CS5310_A2_project/CS5310_A2 Data.xlsx
+++ b/JonahKubath_CS5310_A2_project/CS5310_A2 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koob8\Desktop\Algorithms\JonahKubath_CS5310_A2_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D0DCA01-33BA-495C-86FE-094B21725422}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A570081-85B5-4ADA-9ABF-609F7A04D63D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4560" xr2:uid="{5CE6C8DD-7DDE-495D-A22B-989604C5F695}"/>
   </bookViews>
@@ -57,8 +57,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -86,8 +94,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -103,6 +112,5468 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Functions (10 &lt;= N &lt;= 100)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Quicksort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$5:$B$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1DA3-4710-A1B0-90A3193F25B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>rQuicksort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$5:$C$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1DA3-4710-A1B0-90A3193F25B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Mergesort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$5:$D$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1DA3-4710-A1B0-90A3193F25B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Insertion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$5:$A$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$5:$E$14</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1DA3-4710-A1B0-90A3193F25B3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="242306464"/>
+        <c:axId val="507083088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="242306464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507083088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507083088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242306464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Functions (200 &lt;= N &lt;= 1000)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Quicksort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$16:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>322</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4539-48BA-B714-F577803A6619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>rQuicksort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$16:$C$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>391</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>474</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1185</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4539-48BA-B714-F577803A6619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Mergesort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$16:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>626</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>352</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1152</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>479</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>913</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1178</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1075</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1127</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4539-48BA-B714-F577803A6619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Insertion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$16:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$16:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>270</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>92</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-4539-48BA-B714-F577803A6619}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="242306464"/>
+        <c:axId val="507083088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="242306464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507083088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507083088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242306464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Functions (1000 &lt;= N &lt;= 10000)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Quicksort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$B$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>176</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>339</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>187</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>257</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>388</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6E3B-4BBD-A3B7-53F72D990056}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>rQuicksort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$26:$C$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>416</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>184</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>294</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>667</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>675</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>787</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6E3B-4BBD-A3B7-53F72D990056}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Mergesort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$26:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3676</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2172</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6428</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11290</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>19231</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>14642</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22675</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15366</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>17023</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-6E3B-4BBD-A3B7-53F72D990056}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Insertion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$26:$A$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$26:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1105</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>366</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1473</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2384</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3157</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4809</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5807</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7583</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8790</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-6E3B-4BBD-A3B7-53F72D990056}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="242306464"/>
+        <c:axId val="507083088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="242306464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507083088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507083088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242306464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sort</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Functions (10000 &lt;= N &lt;= 100000)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Quicksort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$B$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>573</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>647</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>951</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1288</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1891</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2619</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2844</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3248</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5089-4257-A29F-D220FBE96CF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>rQuicksort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1380</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2060</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2753</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3513</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4181</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4834</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5506</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6128</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6871</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5089-4257-A29F-D220FBE96CF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Mergesort</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$37:$D$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40901</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68927</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>122732</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>252931</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>425176</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>628083</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>922113</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1219777</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1578264</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1934555</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5089-4257-A29F-D220FBE96CF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Insertion</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$37:$A$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$37:$E$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>14471</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>33542</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75184</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>133982</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>213182</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>299535</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>409965</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>532167</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>678213</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>838604</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5089-4257-A29F-D220FBE96CF8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="242306464"/>
+        <c:axId val="507083088"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="242306464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="507083088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="507083088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Time</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="242306464"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E4D0DC0-C9D8-4473-845B-C23EDA186F81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D94E85CB-E5A4-4417-9551-44A7336B897E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E69E0AC-1FD2-497F-95D0-527CE04BF127}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3EC9FD0-1C75-47B5-BD58-A65035298D1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,10 +5873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF46C5C4-7E4E-468D-9D86-6A6AD16742AE}">
-  <dimension ref="A2:E35"/>
+  <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B31" sqref="B31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="U41" sqref="U41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,21 +5895,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
@@ -854,28 +6325,260 @@
       <c r="A31">
         <v>6000</v>
       </c>
+      <c r="B31">
+        <v>206</v>
+      </c>
+      <c r="C31">
+        <v>423</v>
+      </c>
+      <c r="D31">
+        <v>19231</v>
+      </c>
+      <c r="E31">
+        <v>3157</v>
+      </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>7000</v>
       </c>
+      <c r="B32">
+        <v>256</v>
+      </c>
+      <c r="C32">
+        <v>667</v>
+      </c>
+      <c r="D32">
+        <v>14642</v>
+      </c>
+      <c r="E32">
+        <v>4809</v>
+      </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>8000</v>
       </c>
+      <c r="B33">
+        <v>257</v>
+      </c>
+      <c r="C33">
+        <v>566</v>
+      </c>
+      <c r="D33">
+        <v>22675</v>
+      </c>
+      <c r="E33">
+        <v>5807</v>
+      </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>9000</v>
       </c>
+      <c r="B34">
+        <v>361</v>
+      </c>
+      <c r="C34">
+        <v>675</v>
+      </c>
+      <c r="D34">
+        <v>15366</v>
+      </c>
+      <c r="E34">
+        <v>7583</v>
+      </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>10000</v>
+      </c>
+      <c r="B35">
+        <v>388</v>
+      </c>
+      <c r="C35">
+        <v>787</v>
+      </c>
+      <c r="D35">
+        <v>17023</v>
+      </c>
+      <c r="E35">
+        <v>8790</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>10000</v>
+      </c>
+      <c r="B37">
+        <v>573</v>
+      </c>
+      <c r="C37">
+        <v>1199</v>
+      </c>
+      <c r="D37">
+        <v>40901</v>
+      </c>
+      <c r="E37">
+        <v>14471</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>20000</v>
+      </c>
+      <c r="B38">
+        <v>647</v>
+      </c>
+      <c r="C38">
+        <v>1380</v>
+      </c>
+      <c r="D38">
+        <v>68927</v>
+      </c>
+      <c r="E38">
+        <v>33542</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>30000</v>
+      </c>
+      <c r="B39">
+        <v>951</v>
+      </c>
+      <c r="C39">
+        <v>2060</v>
+      </c>
+      <c r="D39">
+        <v>122732</v>
+      </c>
+      <c r="E39">
+        <v>75184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>40000</v>
+      </c>
+      <c r="B40">
+        <v>1288</v>
+      </c>
+      <c r="C40">
+        <v>2753</v>
+      </c>
+      <c r="D40">
+        <v>252931</v>
+      </c>
+      <c r="E40">
+        <v>133982</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>50000</v>
+      </c>
+      <c r="B41">
+        <v>1600</v>
+      </c>
+      <c r="C41">
+        <v>3513</v>
+      </c>
+      <c r="D41">
+        <v>425176</v>
+      </c>
+      <c r="E41">
+        <v>213182</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>60000</v>
+      </c>
+      <c r="B42">
+        <v>1891</v>
+      </c>
+      <c r="C42">
+        <v>4181</v>
+      </c>
+      <c r="D42">
+        <v>628083</v>
+      </c>
+      <c r="E42">
+        <v>299535</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>70000</v>
+      </c>
+      <c r="B43">
+        <v>225</v>
+      </c>
+      <c r="C43">
+        <v>4834</v>
+      </c>
+      <c r="D43">
+        <v>922113</v>
+      </c>
+      <c r="E43">
+        <v>409965</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>80000</v>
+      </c>
+      <c r="B44">
+        <v>2619</v>
+      </c>
+      <c r="C44">
+        <v>5506</v>
+      </c>
+      <c r="D44">
+        <v>1219777</v>
+      </c>
+      <c r="E44">
+        <v>532167</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>90000</v>
+      </c>
+      <c r="B45">
+        <v>2844</v>
+      </c>
+      <c r="C45">
+        <v>6128</v>
+      </c>
+      <c r="D45">
+        <v>1578264</v>
+      </c>
+      <c r="E45">
+        <v>678213</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>100000</v>
+      </c>
+      <c r="B46">
+        <v>3248</v>
+      </c>
+      <c r="C46">
+        <v>6871</v>
+      </c>
+      <c r="D46">
+        <v>1934555</v>
+      </c>
+      <c r="E46">
+        <v>838604</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/JonahKubath_CS5310_A2_project/CS5310_A2 Data.xlsx
+++ b/JonahKubath_CS5310_A2_project/CS5310_A2 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koob8\Desktop\Algorithms\JonahKubath_CS5310_A2_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A570081-85B5-4ADA-9ABF-609F7A04D63D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF52B6-9003-4A90-8DB7-D13D87E4E706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4560" xr2:uid="{5CE6C8DD-7DDE-495D-A22B-989604C5F695}"/>
   </bookViews>
@@ -5875,8 +5875,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF46C5C4-7E4E-468D-9D86-6A6AD16742AE}">
   <dimension ref="A2:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/JonahKubath_CS5310_A2_project/CS5310_A2 Data.xlsx
+++ b/JonahKubath_CS5310_A2_project/CS5310_A2 Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\koob8\Desktop\Algorithms\JonahKubath_CS5310_A2_project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6DF52B6-9003-4A90-8DB7-D13D87E4E706}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3DFFA29-C613-4034-9840-DB931771447B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15270" windowHeight="4560" xr2:uid="{5CE6C8DD-7DDE-495D-A22B-989604C5F695}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Sort</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>N-Values</t>
+  </si>
+  <si>
+    <t>Theoretical</t>
   </si>
 </sst>
 </file>
@@ -626,6 +629,36 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Length</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of N</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1378,6 +1411,36 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Length</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of N</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2155,6 +2218,36 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Length</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of N</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2932,6 +3025,36 @@
         <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Length</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> of N</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -3197,6 +3320,487 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Theoretical</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Cost</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>n( log n)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$49:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$49:$B$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>33.219280948873624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.438561897747249</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>147.20671786825557</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>212.8771237954945</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>282.1928094887362</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>354.41343573651113</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>429.04981118614774</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>505.75424759098894</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>584.26677866967077</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>664.38561897747252</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-58F6-4D0A-A91A-151E6CFA69F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>n ^ 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$49:$A$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$49:$C$58</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>900</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3600</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4900</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6400</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8100</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-58F6-4D0A-A91A-151E6CFA69F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="618222056"/>
+        <c:axId val="618220416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="618222056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618220416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="618220416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="618222056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -3357,6 +3961,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -4906,6 +5550,522 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5568,6 +6728,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DA95E37-A504-4196-B773-56A194B978C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5873,10 +7069,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF46C5C4-7E4E-468D-9D86-6A6AD16742AE}">
-  <dimension ref="A2:E46"/>
+  <dimension ref="A2:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6576,6 +7772,518 @@
         <v>838604</v>
       </c>
     </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C48" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>10</v>
+      </c>
+      <c r="B49">
+        <f xml:space="preserve"> A49 *LOG(A49, 2)</f>
+        <v>33.219280948873624</v>
+      </c>
+      <c r="C49">
+        <f xml:space="preserve"> A49 * A49</f>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>20</v>
+      </c>
+      <c r="B50">
+        <f t="shared" ref="B50:B90" si="0" xml:space="preserve"> A50 *LOG(A50, 2)</f>
+        <v>86.438561897747249</v>
+      </c>
+      <c r="C50">
+        <f t="shared" ref="C50:C90" si="1" xml:space="preserve"> A50 * A50</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>30</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="0"/>
+        <v>147.20671786825557</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="1"/>
+        <v>900</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>40</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="0"/>
+        <v>212.8771237954945</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="1"/>
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>50</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="0"/>
+        <v>282.1928094887362</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="1"/>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="0"/>
+        <v>354.41343573651113</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="1"/>
+        <v>3600</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>70</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="0"/>
+        <v>429.04981118614774</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="1"/>
+        <v>4900</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>80</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="0"/>
+        <v>505.75424759098894</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="1"/>
+        <v>6400</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>90</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="0"/>
+        <v>584.26677866967077</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="1"/>
+        <v>8100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>100</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="0"/>
+        <v>664.38561897747252</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="1"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>200</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="0"/>
+        <v>1528.7712379549448</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="1"/>
+        <v>40000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>300</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="0"/>
+        <v>2468.6456071487646</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="1"/>
+        <v>90000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>400</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="0"/>
+        <v>3457.5424759098901</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="1"/>
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>500</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="0"/>
+        <v>4482.8921423310439</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="1"/>
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>600</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="0"/>
+        <v>5537.2912142975292</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="1"/>
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>700</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="0"/>
+        <v>6615.8477782826303</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="1"/>
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>800</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="0"/>
+        <v>7715.0849518197801</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="1"/>
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>900</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="0"/>
+        <v>8832.4030720953342</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="1"/>
+        <v>810000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1000</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="0"/>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1000</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="0"/>
+        <v>9965.7842846620879</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>2000</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="0"/>
+        <v>21931.568569324176</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3000</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="0"/>
+        <v>34652.240356149727</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>4000</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="0"/>
+        <v>47863.137138648352</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>16000000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>5000</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="0"/>
+        <v>61438.561897747255</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>6000</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="0"/>
+        <v>75304.480712299453</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>36000000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>7000</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="0"/>
+        <v>89411.974447037835</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>49000000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>8000</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="0"/>
+        <v>103726.2742772967</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>64000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>9000</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="0"/>
+        <v>118221.38357493961</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>81000000</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>10000</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="0"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>10000</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="0"/>
+        <v>132877.1237954945</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>100000000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>20000</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="0"/>
+        <v>285754.24759098899</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>400000000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>30000</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="0"/>
+        <v>446180.24640811823</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>900000000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>40000</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="0"/>
+        <v>611508.49518197798</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>1600000000</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>50000</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="0"/>
+        <v>780482.02372184058</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>2500000000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>60000</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="0"/>
+        <v>952360.49281623645</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>3600000000</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>70000</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="0"/>
+        <v>1126654.7111124936</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>4900000000</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>80000</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="0"/>
+        <v>1303016.990363956</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>6400000000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>90000</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="0"/>
+        <v>1481187.3642892586</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>8100000000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>100000</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="0"/>
+        <v>1660964.0474436812</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>10000000000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
